--- a/School Enrolment&Attendance/Enrolment Data vs Attendance Report.xlsx
+++ b/School Enrolment&Attendance/Enrolment Data vs Attendance Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JohnKul\Downloads\DSC-Johntrial\School Enrolment&amp;Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A97F59-6EB8-4164-841D-BEEF3DCB48B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5DA5EB-B11F-4D2F-9820-F48706933410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{889C745F-092E-49DF-9274-E116BEDAB7D2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{889C745F-092E-49DF-9274-E116BEDAB7D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Enrolment Data" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="44">
   <si>
     <t>Boys</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
 </sst>
 </file>
@@ -562,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6C5C15-52BC-43AE-9489-99C31925233A}">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -657,13 +660,13 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C4">
         <v>134</v>
       </c>
       <c r="D4">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
@@ -1073,13 +1076,13 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C20">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D20">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>4</v>
@@ -1281,13 +1284,13 @@
         <v>16</v>
       </c>
       <c r="B28">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C28">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D28">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>5</v>
@@ -1489,13 +1492,13 @@
         <v>16</v>
       </c>
       <c r="B36">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C36">
         <v>192</v>
       </c>
       <c r="D36">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>6</v>
@@ -3130,10 +3133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EF40A3-FB82-4FAD-B863-9C82B855B50E}">
-  <dimension ref="A1:I389"/>
+  <dimension ref="A1:I486"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M483" sqref="M483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14348,10 +14351,10 @@
         <v>14</v>
       </c>
       <c r="C387" s="4">
-        <v>141.4</v>
+        <v>182.4</v>
       </c>
       <c r="D387" s="4">
-        <v>141.4</v>
+        <v>182.4</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>30</v>
@@ -14377,10 +14380,10 @@
         <v>14</v>
       </c>
       <c r="C388" s="4">
-        <v>102.8</v>
+        <v>102</v>
       </c>
       <c r="D388" s="4">
-        <v>102.8</v>
+        <v>102</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>31</v>
@@ -14424,6 +14427,2753 @@
         <v>2</v>
       </c>
       <c r="I389">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>22</v>
+      </c>
+      <c r="B390" s="4">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="C390" s="4">
+        <v>116.8</v>
+      </c>
+      <c r="D390" s="4">
+        <v>255.6</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H390">
+        <v>2</v>
+      </c>
+      <c r="I390">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>22</v>
+      </c>
+      <c r="B391" s="4">
+        <v>174.8</v>
+      </c>
+      <c r="C391" s="4">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="D391" s="4">
+        <v>334.6</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H391">
+        <v>2</v>
+      </c>
+      <c r="I391">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>22</v>
+      </c>
+      <c r="B392" s="4">
+        <v>238</v>
+      </c>
+      <c r="C392" s="4">
+        <v>207.2</v>
+      </c>
+      <c r="D392" s="4">
+        <v>445.2</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H392">
+        <v>2</v>
+      </c>
+      <c r="I392">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>22</v>
+      </c>
+      <c r="B393" s="4">
+        <v>174.4</v>
+      </c>
+      <c r="C393" s="4">
+        <v>188.6</v>
+      </c>
+      <c r="D393" s="4">
+        <v>363</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H393">
+        <v>2</v>
+      </c>
+      <c r="I393">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>22</v>
+      </c>
+      <c r="B394" s="4">
+        <v>176.6</v>
+      </c>
+      <c r="C394" s="4">
+        <v>136.6</v>
+      </c>
+      <c r="D394" s="4">
+        <v>313.2</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H394">
+        <v>2</v>
+      </c>
+      <c r="I394">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>22</v>
+      </c>
+      <c r="B395" s="4">
+        <v>249.4</v>
+      </c>
+      <c r="C395" s="4">
+        <v>153.4</v>
+      </c>
+      <c r="D395" s="4">
+        <v>402.8</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H395">
+        <v>2</v>
+      </c>
+      <c r="I395">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>22</v>
+      </c>
+      <c r="B396" s="4">
+        <v>184.8</v>
+      </c>
+      <c r="C396" s="4">
+        <v>145.6</v>
+      </c>
+      <c r="D396" s="4">
+        <v>330.4</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H396">
+        <v>2</v>
+      </c>
+      <c r="I396">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>22</v>
+      </c>
+      <c r="B397" s="4">
+        <v>71.8</v>
+      </c>
+      <c r="C397" s="4">
+        <v>52.8</v>
+      </c>
+      <c r="D397" s="4">
+        <v>124.6</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H397">
+        <v>2</v>
+      </c>
+      <c r="I397">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>22</v>
+      </c>
+      <c r="B398" s="4">
+        <v>130.4</v>
+      </c>
+      <c r="C398" s="4">
+        <v>91.8</v>
+      </c>
+      <c r="D398" s="4">
+        <v>222.2</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H398">
+        <v>2</v>
+      </c>
+      <c r="I398">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>22</v>
+      </c>
+      <c r="B399" s="4">
+        <v>120</v>
+      </c>
+      <c r="C399" s="4">
+        <v>70.2</v>
+      </c>
+      <c r="D399" s="4">
+        <v>190.2</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G399" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H399">
+        <v>2</v>
+      </c>
+      <c r="I399">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>22</v>
+      </c>
+      <c r="B400" s="4">
+        <v>153</v>
+      </c>
+      <c r="C400" s="4">
+        <v>60.8</v>
+      </c>
+      <c r="D400" s="4">
+        <v>213.8</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H400">
+        <v>2</v>
+      </c>
+      <c r="I400">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>15</v>
+      </c>
+      <c r="B401" s="4">
+        <v>414</v>
+      </c>
+      <c r="C401" s="4">
+        <v>380.8</v>
+      </c>
+      <c r="D401" s="4">
+        <v>794.8</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H401">
+        <v>2</v>
+      </c>
+      <c r="I401">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>15</v>
+      </c>
+      <c r="B402" s="4">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="C402" s="4">
+        <v>137</v>
+      </c>
+      <c r="D402" s="4">
+        <v>286.8</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G402" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H402">
+        <v>2</v>
+      </c>
+      <c r="I402">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>15</v>
+      </c>
+      <c r="B403" s="4">
+        <v>382.2</v>
+      </c>
+      <c r="C403" s="4">
+        <v>341.6</v>
+      </c>
+      <c r="D403" s="4">
+        <v>723.8</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G403" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H403">
+        <v>2</v>
+      </c>
+      <c r="I403">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>15</v>
+      </c>
+      <c r="B404" s="4">
+        <v>460.2</v>
+      </c>
+      <c r="C404" s="4">
+        <v>447.4</v>
+      </c>
+      <c r="D404" s="4">
+        <v>907.6</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H404">
+        <v>2</v>
+      </c>
+      <c r="I404">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>15</v>
+      </c>
+      <c r="B405" s="4">
+        <v>435.6</v>
+      </c>
+      <c r="C405" s="4">
+        <v>379.6</v>
+      </c>
+      <c r="D405" s="4">
+        <v>815.2</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G405" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H405">
+        <v>2</v>
+      </c>
+      <c r="I405">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>15</v>
+      </c>
+      <c r="B406" s="4">
+        <v>481.6</v>
+      </c>
+      <c r="C406" s="4">
+        <v>362</v>
+      </c>
+      <c r="D406" s="4">
+        <v>843.6</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G406" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H406">
+        <v>2</v>
+      </c>
+      <c r="I406">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>15</v>
+      </c>
+      <c r="B407" s="4">
+        <v>301.60000000000002</v>
+      </c>
+      <c r="C407" s="4">
+        <v>176.8</v>
+      </c>
+      <c r="D407" s="4">
+        <v>478.4</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H407">
+        <v>2</v>
+      </c>
+      <c r="I407">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>15</v>
+      </c>
+      <c r="B408" s="4">
+        <v>190.4</v>
+      </c>
+      <c r="C408" s="4">
+        <v>167.8</v>
+      </c>
+      <c r="D408" s="4">
+        <v>358.2</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G408" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H408">
+        <v>2</v>
+      </c>
+      <c r="I408">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>15</v>
+      </c>
+      <c r="B409" s="4">
+        <v>208.8</v>
+      </c>
+      <c r="C409" s="4">
+        <v>154.4</v>
+      </c>
+      <c r="D409" s="4">
+        <v>363.2</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G409" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H409">
+        <v>2</v>
+      </c>
+      <c r="I409">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>15</v>
+      </c>
+      <c r="B410" s="4">
+        <v>199.4</v>
+      </c>
+      <c r="C410" s="4">
+        <v>144</v>
+      </c>
+      <c r="D410" s="4">
+        <v>343.4</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H410">
+        <v>2</v>
+      </c>
+      <c r="I410">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>15</v>
+      </c>
+      <c r="B411" s="4">
+        <v>157.4</v>
+      </c>
+      <c r="C411" s="4">
+        <v>87.6</v>
+      </c>
+      <c r="D411" s="4">
+        <v>245</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H411">
+        <v>2</v>
+      </c>
+      <c r="I411">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>16</v>
+      </c>
+      <c r="B412" s="4">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="C412" s="4">
+        <v>119.2</v>
+      </c>
+      <c r="D412" s="4">
+        <v>250</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G412" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H412">
+        <v>2</v>
+      </c>
+      <c r="I412">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>16</v>
+      </c>
+      <c r="B413" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="C413" s="4">
+        <v>33.6</v>
+      </c>
+      <c r="D413" s="4">
+        <v>64.2</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G413" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H413">
+        <v>2</v>
+      </c>
+      <c r="I413">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>16</v>
+      </c>
+      <c r="B414" s="4">
+        <v>171.4</v>
+      </c>
+      <c r="C414" s="4">
+        <v>155.4</v>
+      </c>
+      <c r="D414" s="4">
+        <v>326.8</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H414">
+        <v>2</v>
+      </c>
+      <c r="I414">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>16</v>
+      </c>
+      <c r="B415" s="4">
+        <v>174.8</v>
+      </c>
+      <c r="C415" s="4">
+        <v>154.6</v>
+      </c>
+      <c r="D415" s="4">
+        <v>329.4</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H415">
+        <v>2</v>
+      </c>
+      <c r="I415">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
+        <v>16</v>
+      </c>
+      <c r="B416" s="4">
+        <v>182</v>
+      </c>
+      <c r="C416" s="4">
+        <v>153.6</v>
+      </c>
+      <c r="D416" s="4">
+        <v>335.6</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H416">
+        <v>2</v>
+      </c>
+      <c r="I416">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A417" t="s">
+        <v>16</v>
+      </c>
+      <c r="B417" s="4">
+        <v>149.6</v>
+      </c>
+      <c r="C417" s="4">
+        <v>130.4</v>
+      </c>
+      <c r="D417" s="4">
+        <v>280</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H417">
+        <v>2</v>
+      </c>
+      <c r="I417">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
+        <v>16</v>
+      </c>
+      <c r="B418" s="4">
+        <v>120.2</v>
+      </c>
+      <c r="C418" s="4">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="D418" s="4">
+        <v>250</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H418">
+        <v>2</v>
+      </c>
+      <c r="I418">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
+        <v>16</v>
+      </c>
+      <c r="B419" s="4">
+        <v>112</v>
+      </c>
+      <c r="C419" s="4">
+        <v>79.8</v>
+      </c>
+      <c r="D419" s="4">
+        <v>191.8</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H419">
+        <v>2</v>
+      </c>
+      <c r="I419">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A420" t="s">
+        <v>16</v>
+      </c>
+      <c r="B420" s="4">
+        <v>88</v>
+      </c>
+      <c r="C420" s="4">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="D420" s="4">
+        <v>165.4</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H420">
+        <v>2</v>
+      </c>
+      <c r="I420">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
+        <v>16</v>
+      </c>
+      <c r="B421" s="4">
+        <v>79.8</v>
+      </c>
+      <c r="C421" s="4">
+        <v>79.8</v>
+      </c>
+      <c r="D421" s="4">
+        <v>159.6</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H421">
+        <v>2</v>
+      </c>
+      <c r="I421">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A422" t="s">
+        <v>16</v>
+      </c>
+      <c r="B422" s="4">
+        <v>81.2</v>
+      </c>
+      <c r="C422" s="4">
+        <v>50.4</v>
+      </c>
+      <c r="D422" s="4">
+        <v>131.6</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H422">
+        <v>2</v>
+      </c>
+      <c r="I422">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
+        <v>17</v>
+      </c>
+      <c r="B423" s="4">
+        <v>168.2</v>
+      </c>
+      <c r="C423" s="4">
+        <v>160.6</v>
+      </c>
+      <c r="D423" s="4">
+        <v>328.8</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G423" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H423">
+        <v>2</v>
+      </c>
+      <c r="I423">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
+        <v>17</v>
+      </c>
+      <c r="B424" s="4">
+        <v>134.4</v>
+      </c>
+      <c r="C424" s="4">
+        <v>132.4</v>
+      </c>
+      <c r="D424" s="4">
+        <v>266.8</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H424">
+        <v>2</v>
+      </c>
+      <c r="I424">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
+        <v>17</v>
+      </c>
+      <c r="B425" s="4">
+        <v>168.2</v>
+      </c>
+      <c r="C425" s="4">
+        <v>164.4</v>
+      </c>
+      <c r="D425" s="4">
+        <v>332.6</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H425">
+        <v>2</v>
+      </c>
+      <c r="I425">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
+        <v>17</v>
+      </c>
+      <c r="B426" s="4">
+        <v>187.2</v>
+      </c>
+      <c r="C426" s="4">
+        <v>183.6</v>
+      </c>
+      <c r="D426" s="4">
+        <v>370.8</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H426">
+        <v>2</v>
+      </c>
+      <c r="I426">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A427" t="s">
+        <v>17</v>
+      </c>
+      <c r="B427" s="4">
+        <v>273.60000000000002</v>
+      </c>
+      <c r="C427" s="4">
+        <v>228.4</v>
+      </c>
+      <c r="D427" s="4">
+        <v>502</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G427" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H427">
+        <v>2</v>
+      </c>
+      <c r="I427">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
+        <v>17</v>
+      </c>
+      <c r="B428" s="4">
+        <v>260.39999999999998</v>
+      </c>
+      <c r="C428" s="4">
+        <v>172.8</v>
+      </c>
+      <c r="D428" s="4">
+        <v>433.2</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H428">
+        <v>2</v>
+      </c>
+      <c r="I428">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
+        <v>17</v>
+      </c>
+      <c r="B429" s="4">
+        <v>274.8</v>
+      </c>
+      <c r="C429" s="4">
+        <v>173.8</v>
+      </c>
+      <c r="D429" s="4">
+        <v>448.6</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H429">
+        <v>2</v>
+      </c>
+      <c r="I429">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
+        <v>17</v>
+      </c>
+      <c r="B430" s="4">
+        <v>286.60000000000002</v>
+      </c>
+      <c r="C430" s="4">
+        <v>196.4</v>
+      </c>
+      <c r="D430" s="4">
+        <v>483</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H430">
+        <v>2</v>
+      </c>
+      <c r="I430">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A431" t="s">
+        <v>17</v>
+      </c>
+      <c r="B431" s="4">
+        <v>138.6</v>
+      </c>
+      <c r="C431" s="4">
+        <v>116.6</v>
+      </c>
+      <c r="D431" s="4">
+        <v>255.2</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H431">
+        <v>2</v>
+      </c>
+      <c r="I431">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A432" t="s">
+        <v>17</v>
+      </c>
+      <c r="B432" s="4">
+        <v>183.6</v>
+      </c>
+      <c r="C432" s="4">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="D432" s="4">
+        <v>325.8</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H432">
+        <v>2</v>
+      </c>
+      <c r="I432">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A433" t="s">
+        <v>17</v>
+      </c>
+      <c r="B433" s="4">
+        <v>137</v>
+      </c>
+      <c r="C433" s="4">
+        <v>91.2</v>
+      </c>
+      <c r="D433" s="4">
+        <v>228.2</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H433">
+        <v>2</v>
+      </c>
+      <c r="I433">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A434" t="s">
+        <v>18</v>
+      </c>
+      <c r="B434" s="4">
+        <v>246.6</v>
+      </c>
+      <c r="C434" s="4">
+        <v>232.6</v>
+      </c>
+      <c r="D434" s="4">
+        <v>479.2</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H434">
+        <v>2</v>
+      </c>
+      <c r="I434">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A435" t="s">
+        <v>18</v>
+      </c>
+      <c r="B435" s="4">
+        <v>190.4</v>
+      </c>
+      <c r="C435" s="4">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="D435" s="4">
+        <v>338.6</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H435">
+        <v>2</v>
+      </c>
+      <c r="I435">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
+        <v>18</v>
+      </c>
+      <c r="B436" s="4">
+        <v>312.8</v>
+      </c>
+      <c r="C436" s="4">
+        <v>274.8</v>
+      </c>
+      <c r="D436" s="4">
+        <v>587.6</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H436">
+        <v>2</v>
+      </c>
+      <c r="I436">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A437" t="s">
+        <v>18</v>
+      </c>
+      <c r="B437" s="4">
+        <v>250.8</v>
+      </c>
+      <c r="C437" s="4">
+        <v>223.6</v>
+      </c>
+      <c r="D437" s="4">
+        <v>474.4</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H437">
+        <v>2</v>
+      </c>
+      <c r="I437">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A438" t="s">
+        <v>18</v>
+      </c>
+      <c r="B438" s="4">
+        <v>284.60000000000002</v>
+      </c>
+      <c r="C438" s="4">
+        <v>159</v>
+      </c>
+      <c r="D438" s="4">
+        <v>443.6</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G438" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H438">
+        <v>2</v>
+      </c>
+      <c r="I438">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A439" t="s">
+        <v>18</v>
+      </c>
+      <c r="B439" s="4">
+        <v>216</v>
+      </c>
+      <c r="C439" s="4">
+        <v>175.6</v>
+      </c>
+      <c r="D439" s="4">
+        <v>391.6</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G439" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H439">
+        <v>2</v>
+      </c>
+      <c r="I439">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A440" t="s">
+        <v>18</v>
+      </c>
+      <c r="B440" s="4">
+        <v>218.8</v>
+      </c>
+      <c r="C440" s="4">
+        <v>153</v>
+      </c>
+      <c r="D440" s="4">
+        <v>371.8</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H440">
+        <v>2</v>
+      </c>
+      <c r="I440">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
+        <v>18</v>
+      </c>
+      <c r="B441" s="4">
+        <v>220.4</v>
+      </c>
+      <c r="C441" s="4">
+        <v>200.2</v>
+      </c>
+      <c r="D441" s="4">
+        <v>420.6</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H441">
+        <v>2</v>
+      </c>
+      <c r="I441">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
+        <v>18</v>
+      </c>
+      <c r="B442" s="4">
+        <v>125.6</v>
+      </c>
+      <c r="C442" s="4">
+        <v>86.8</v>
+      </c>
+      <c r="D442" s="4">
+        <v>212.4</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H442">
+        <v>2</v>
+      </c>
+      <c r="I442">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>18</v>
+      </c>
+      <c r="B443" s="4">
+        <v>248.8</v>
+      </c>
+      <c r="C443" s="4">
+        <v>159</v>
+      </c>
+      <c r="D443" s="4">
+        <v>407.8</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G443" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H443">
+        <v>2</v>
+      </c>
+      <c r="I443">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>18</v>
+      </c>
+      <c r="B444" s="4">
+        <v>120.6</v>
+      </c>
+      <c r="C444" s="4">
+        <v>55.2</v>
+      </c>
+      <c r="D444" s="4">
+        <v>175.8</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H444">
+        <v>2</v>
+      </c>
+      <c r="I444">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>19</v>
+      </c>
+      <c r="B445" s="4">
+        <v>250.6</v>
+      </c>
+      <c r="C445" s="4">
+        <v>235.2</v>
+      </c>
+      <c r="D445" s="4">
+        <v>485.8</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G445" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H445">
+        <v>2</v>
+      </c>
+      <c r="I445">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>19</v>
+      </c>
+      <c r="B446" s="4">
+        <v>242.4</v>
+      </c>
+      <c r="C446" s="4">
+        <v>235</v>
+      </c>
+      <c r="D446" s="4">
+        <v>477.4</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H446">
+        <v>2</v>
+      </c>
+      <c r="I446">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>19</v>
+      </c>
+      <c r="B447" s="4">
+        <v>156</v>
+      </c>
+      <c r="C447" s="4">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="D447" s="4">
+        <v>269.39999999999998</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H447">
+        <v>2</v>
+      </c>
+      <c r="I447">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>19</v>
+      </c>
+      <c r="B448" s="4">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="C448" s="4">
+        <v>140.6</v>
+      </c>
+      <c r="D448" s="4">
+        <v>389.6</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H448">
+        <v>2</v>
+      </c>
+      <c r="I448">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
+        <v>19</v>
+      </c>
+      <c r="B449" s="4">
+        <v>181.2</v>
+      </c>
+      <c r="C449" s="4">
+        <v>143</v>
+      </c>
+      <c r="D449" s="4">
+        <v>424</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G449" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H449">
+        <v>2</v>
+      </c>
+      <c r="I449">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
+        <v>19</v>
+      </c>
+      <c r="B450" s="4">
+        <v>134</v>
+      </c>
+      <c r="C450" s="4">
+        <v>117.6</v>
+      </c>
+      <c r="D450" s="4">
+        <v>227.8</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H450">
+        <v>2</v>
+      </c>
+      <c r="I450">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>19</v>
+      </c>
+      <c r="B451" s="4">
+        <v>116.6</v>
+      </c>
+      <c r="C451" s="4">
+        <v>46</v>
+      </c>
+      <c r="D451" s="4">
+        <v>152.6</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G451" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H451">
+        <v>2</v>
+      </c>
+      <c r="I451">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>19</v>
+      </c>
+      <c r="B452" s="4">
+        <v>127.2</v>
+      </c>
+      <c r="C452" s="4">
+        <v>62.4</v>
+      </c>
+      <c r="D452" s="4">
+        <v>178</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H452">
+        <v>2</v>
+      </c>
+      <c r="I452">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
+        <v>19</v>
+      </c>
+      <c r="B453" s="4">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="C453" s="4">
+        <v>95.4</v>
+      </c>
+      <c r="D453" s="4">
+        <v>224.6</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H453">
+        <v>2</v>
+      </c>
+      <c r="I453">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>19</v>
+      </c>
+      <c r="B454" s="4">
+        <v>86</v>
+      </c>
+      <c r="C454" s="4">
+        <v>67.2</v>
+      </c>
+      <c r="D454" s="4">
+        <v>153.19999999999999</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H454">
+        <v>2</v>
+      </c>
+      <c r="I454">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>19</v>
+      </c>
+      <c r="B455" s="4">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="C455" s="4">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="D455" s="4">
+        <v>113.8</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H455">
+        <v>2</v>
+      </c>
+      <c r="I455">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>20</v>
+      </c>
+      <c r="B456" s="4"/>
+      <c r="C456" s="4"/>
+      <c r="D456" s="4"/>
+      <c r="E456" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G456" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H456">
+        <v>2</v>
+      </c>
+      <c r="I456">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
+        <v>20</v>
+      </c>
+      <c r="B457" s="4"/>
+      <c r="C457" s="4"/>
+      <c r="D457" s="4"/>
+      <c r="E457" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H457">
+        <v>2</v>
+      </c>
+      <c r="I457">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
+        <v>20</v>
+      </c>
+      <c r="B458" s="4"/>
+      <c r="C458" s="4"/>
+      <c r="D458" s="4"/>
+      <c r="E458" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H458">
+        <v>2</v>
+      </c>
+      <c r="I458">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
+        <v>20</v>
+      </c>
+      <c r="B459" s="4"/>
+      <c r="C459" s="4"/>
+      <c r="D459" s="4"/>
+      <c r="E459" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H459">
+        <v>2</v>
+      </c>
+      <c r="I459">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
+        <v>20</v>
+      </c>
+      <c r="B460" s="4"/>
+      <c r="C460" s="4"/>
+      <c r="D460" s="4"/>
+      <c r="E460" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H460">
+        <v>2</v>
+      </c>
+      <c r="I460">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
+        <v>20</v>
+      </c>
+      <c r="B461" s="4"/>
+      <c r="C461" s="4"/>
+      <c r="D461" s="4"/>
+      <c r="E461" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H461">
+        <v>2</v>
+      </c>
+      <c r="I461">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A462" t="s">
+        <v>20</v>
+      </c>
+      <c r="B462" s="4"/>
+      <c r="C462" s="4"/>
+      <c r="D462" s="4"/>
+      <c r="E462" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H462">
+        <v>2</v>
+      </c>
+      <c r="I462">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
+        <v>20</v>
+      </c>
+      <c r="B463" s="4"/>
+      <c r="C463" s="4"/>
+      <c r="D463" s="4"/>
+      <c r="E463" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H463">
+        <v>2</v>
+      </c>
+      <c r="I463">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A464" t="s">
+        <v>20</v>
+      </c>
+      <c r="B464" s="4"/>
+      <c r="C464" s="4"/>
+      <c r="D464" s="4"/>
+      <c r="E464" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H464">
+        <v>2</v>
+      </c>
+      <c r="I464">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A465" t="s">
+        <v>20</v>
+      </c>
+      <c r="B465" s="4"/>
+      <c r="C465" s="4"/>
+      <c r="D465" s="4"/>
+      <c r="E465" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H465">
+        <v>2</v>
+      </c>
+      <c r="I465">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A466" t="s">
+        <v>20</v>
+      </c>
+      <c r="B466" s="4"/>
+      <c r="C466" s="4"/>
+      <c r="D466" s="4"/>
+      <c r="E466" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G466" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H466">
+        <v>2</v>
+      </c>
+      <c r="I466">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A467" t="s">
+        <v>23</v>
+      </c>
+      <c r="B467" s="4">
+        <v>30.2</v>
+      </c>
+      <c r="C467" s="4">
+        <v>24</v>
+      </c>
+      <c r="D467" s="4">
+        <v>54.2</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H467">
+        <v>2</v>
+      </c>
+      <c r="I467">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A468" t="s">
+        <v>23</v>
+      </c>
+      <c r="B468" s="4">
+        <v>31.4</v>
+      </c>
+      <c r="C468" s="4">
+        <v>26.6</v>
+      </c>
+      <c r="D468" s="4">
+        <v>58</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H468">
+        <v>2</v>
+      </c>
+      <c r="I468">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A469" t="s">
+        <v>23</v>
+      </c>
+      <c r="B469" s="4">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="C469" s="4">
+        <v>60.6</v>
+      </c>
+      <c r="D469" s="4">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H469">
+        <v>2</v>
+      </c>
+      <c r="I469">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A470" t="s">
+        <v>23</v>
+      </c>
+      <c r="B470" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="C470" s="4">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="D470" s="4">
+        <v>150.4</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H470">
+        <v>2</v>
+      </c>
+      <c r="I470">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A471" t="s">
+        <v>23</v>
+      </c>
+      <c r="B471" s="4">
+        <v>105.2</v>
+      </c>
+      <c r="C471" s="4">
+        <v>107.2</v>
+      </c>
+      <c r="D471" s="4">
+        <v>215</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H471">
+        <v>2</v>
+      </c>
+      <c r="I471">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A472" t="s">
+        <v>23</v>
+      </c>
+      <c r="B472" s="4">
+        <v>90.2</v>
+      </c>
+      <c r="C472" s="4">
+        <v>72</v>
+      </c>
+      <c r="D472" s="4">
+        <v>161</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H472">
+        <v>2</v>
+      </c>
+      <c r="I472">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A473" t="s">
+        <v>23</v>
+      </c>
+      <c r="B473" s="4">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="C473" s="4">
+        <v>72</v>
+      </c>
+      <c r="D473" s="4">
+        <v>146.4</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H473">
+        <v>2</v>
+      </c>
+      <c r="I473">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A474" t="s">
+        <v>23</v>
+      </c>
+      <c r="B474" s="4">
+        <v>41.4</v>
+      </c>
+      <c r="C474" s="4">
+        <v>37.6</v>
+      </c>
+      <c r="D474" s="4">
+        <v>77.8</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H474">
+        <v>2</v>
+      </c>
+      <c r="I474">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A475" t="s">
+        <v>23</v>
+      </c>
+      <c r="B475" s="4">
+        <v>29</v>
+      </c>
+      <c r="C475" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="D475" s="4">
+        <v>39.6</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H475">
+        <v>2</v>
+      </c>
+      <c r="I475">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A476" t="s">
+        <v>23</v>
+      </c>
+      <c r="B476" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C476" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D476" s="4">
+        <v>0</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H476">
+        <v>2</v>
+      </c>
+      <c r="I476">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A477" t="s">
+        <v>23</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C477" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D477" s="4">
+        <v>0</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H477">
+        <v>2</v>
+      </c>
+      <c r="I477">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A478" t="s">
+        <v>37</v>
+      </c>
+      <c r="B478" s="4">
+        <v>302.8</v>
+      </c>
+      <c r="C478" s="4">
+        <v>155.4</v>
+      </c>
+      <c r="D478" s="4">
+        <v>458.20000000000005</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H478">
+        <v>2</v>
+      </c>
+      <c r="I478">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A479" t="s">
+        <v>37</v>
+      </c>
+      <c r="B479" s="4">
+        <v>285.39999999999998</v>
+      </c>
+      <c r="C479" s="4">
+        <v>132</v>
+      </c>
+      <c r="D479" s="4">
+        <v>417.4</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H479">
+        <v>2</v>
+      </c>
+      <c r="I479">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A480" t="s">
+        <v>37</v>
+      </c>
+      <c r="B480" s="4">
+        <v>186</v>
+      </c>
+      <c r="C480" s="4">
+        <v>80</v>
+      </c>
+      <c r="D480" s="4">
+        <v>266</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G480" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H480">
+        <v>2</v>
+      </c>
+      <c r="I480">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A481" t="s">
+        <v>38</v>
+      </c>
+      <c r="B481" s="4">
+        <v>225.6</v>
+      </c>
+      <c r="C481" s="4">
+        <v>115.4</v>
+      </c>
+      <c r="D481" s="4">
+        <v>341</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H481">
+        <v>2</v>
+      </c>
+      <c r="I481">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A482" t="s">
+        <v>38</v>
+      </c>
+      <c r="B482" s="4">
+        <v>175.8</v>
+      </c>
+      <c r="C482" s="4">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="D482" s="4">
+        <v>253.4</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H482">
+        <v>2</v>
+      </c>
+      <c r="I482">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A483" t="s">
+        <v>38</v>
+      </c>
+      <c r="B483" s="4">
+        <v>160.19999999999999</v>
+      </c>
+      <c r="C483" s="4">
+        <v>61</v>
+      </c>
+      <c r="D483" s="4">
+        <v>221.2</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H483">
+        <v>2</v>
+      </c>
+      <c r="I483">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A484" t="s">
+        <v>29</v>
+      </c>
+      <c r="B484" t="s">
+        <v>14</v>
+      </c>
+      <c r="C484" s="4">
+        <v>184</v>
+      </c>
+      <c r="D484" s="4">
+        <v>184</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H484">
+        <v>2</v>
+      </c>
+      <c r="I484">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A485" t="s">
+        <v>29</v>
+      </c>
+      <c r="B485" t="s">
+        <v>14</v>
+      </c>
+      <c r="C485" s="4">
+        <v>102</v>
+      </c>
+      <c r="D485" s="4">
+        <v>102</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H485">
+        <v>2</v>
+      </c>
+      <c r="I485">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A486" t="s">
+        <v>29</v>
+      </c>
+      <c r="B486" t="s">
+        <v>14</v>
+      </c>
+      <c r="C486" t="s">
+        <v>14</v>
+      </c>
+      <c r="D486" s="4">
+        <v>0</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H486">
+        <v>2</v>
+      </c>
+      <c r="I486">
         <v>2025</v>
       </c>
     </row>

--- a/School Enrolment&Attendance/Enrolment Data vs Attendance Report.xlsx
+++ b/School Enrolment&Attendance/Enrolment Data vs Attendance Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JohnKul\Downloads\DSC-Johntrial\School Enrolment&amp;Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5DA5EB-B11F-4D2F-9820-F48706933410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AB2553-5391-4F64-980D-A52FC346314E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{889C745F-092E-49DF-9274-E116BEDAB7D2}"/>
   </bookViews>
@@ -3135,18 +3135,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EF40A3-FB82-4FAD-B863-9C82B855B50E}">
   <dimension ref="A1:I486"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M483" sqref="M483"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
     <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.36328125" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -16348,9 +16348,15 @@
       <c r="A456" t="s">
         <v>20</v>
       </c>
-      <c r="B456" s="4"/>
-      <c r="C456" s="4"/>
-      <c r="D456" s="4"/>
+      <c r="B456" s="4">
+        <v>45.4</v>
+      </c>
+      <c r="C456" s="4">
+        <v>47.8</v>
+      </c>
+      <c r="D456" s="4">
+        <v>93.2</v>
+      </c>
       <c r="E456" s="1" t="s">
         <v>2</v>
       </c>
@@ -16371,9 +16377,15 @@
       <c r="A457" t="s">
         <v>20</v>
       </c>
-      <c r="B457" s="4"/>
-      <c r="C457" s="4"/>
-      <c r="D457" s="4"/>
+      <c r="B457" s="4">
+        <v>54.8</v>
+      </c>
+      <c r="C457" s="4">
+        <v>47.2</v>
+      </c>
+      <c r="D457" s="4">
+        <v>102</v>
+      </c>
       <c r="E457" s="1" t="s">
         <v>3</v>
       </c>
@@ -16394,9 +16406,15 @@
       <c r="A458" t="s">
         <v>20</v>
       </c>
-      <c r="B458" s="4"/>
-      <c r="C458" s="4"/>
-      <c r="D458" s="4"/>
+      <c r="B458" s="4">
+        <v>66.2</v>
+      </c>
+      <c r="C458" s="4">
+        <v>50</v>
+      </c>
+      <c r="D458" s="4">
+        <v>116.2</v>
+      </c>
       <c r="E458" s="1" t="s">
         <v>4</v>
       </c>
@@ -16417,9 +16435,15 @@
       <c r="A459" t="s">
         <v>20</v>
       </c>
-      <c r="B459" s="4"/>
-      <c r="C459" s="4"/>
-      <c r="D459" s="4"/>
+      <c r="B459" s="4">
+        <v>67.8</v>
+      </c>
+      <c r="C459" s="4">
+        <v>52.2</v>
+      </c>
+      <c r="D459" s="4">
+        <v>120</v>
+      </c>
       <c r="E459" s="1" t="s">
         <v>5</v>
       </c>
@@ -16440,9 +16464,15 @@
       <c r="A460" t="s">
         <v>20</v>
       </c>
-      <c r="B460" s="4"/>
-      <c r="C460" s="4"/>
-      <c r="D460" s="4"/>
+      <c r="B460" s="4">
+        <v>83</v>
+      </c>
+      <c r="C460" s="4">
+        <v>64</v>
+      </c>
+      <c r="D460" s="4">
+        <v>147</v>
+      </c>
       <c r="E460" s="1" t="s">
         <v>6</v>
       </c>
@@ -16463,9 +16493,15 @@
       <c r="A461" t="s">
         <v>20</v>
       </c>
-      <c r="B461" s="4"/>
-      <c r="C461" s="4"/>
-      <c r="D461" s="4"/>
+      <c r="B461" s="4">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="C461" s="4">
+        <v>57.4</v>
+      </c>
+      <c r="D461" s="4">
+        <v>139</v>
+      </c>
       <c r="E461" s="1" t="s">
         <v>7</v>
       </c>
@@ -16486,9 +16522,15 @@
       <c r="A462" t="s">
         <v>20</v>
       </c>
-      <c r="B462" s="4"/>
-      <c r="C462" s="4"/>
-      <c r="D462" s="4"/>
+      <c r="B462" s="4">
+        <v>63.6</v>
+      </c>
+      <c r="C462" s="4">
+        <v>57.2</v>
+      </c>
+      <c r="D462" s="4">
+        <v>120.8</v>
+      </c>
       <c r="E462" s="1" t="s">
         <v>8</v>
       </c>
@@ -16509,9 +16551,15 @@
       <c r="A463" t="s">
         <v>20</v>
       </c>
-      <c r="B463" s="4"/>
-      <c r="C463" s="4"/>
-      <c r="D463" s="4"/>
+      <c r="B463" s="4">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="C463" s="4">
+        <v>50.8</v>
+      </c>
+      <c r="D463" s="4">
+        <v>125.2</v>
+      </c>
       <c r="E463" s="1" t="s">
         <v>9</v>
       </c>
@@ -16532,9 +16580,15 @@
       <c r="A464" t="s">
         <v>20</v>
       </c>
-      <c r="B464" s="4"/>
-      <c r="C464" s="4"/>
-      <c r="D464" s="4"/>
+      <c r="B464" s="4">
+        <v>59.4</v>
+      </c>
+      <c r="C464" s="4">
+        <v>53.4</v>
+      </c>
+      <c r="D464" s="4">
+        <v>112.8</v>
+      </c>
       <c r="E464" s="1" t="s">
         <v>10</v>
       </c>
@@ -16555,9 +16609,15 @@
       <c r="A465" t="s">
         <v>20</v>
       </c>
-      <c r="B465" s="4"/>
-      <c r="C465" s="4"/>
-      <c r="D465" s="4"/>
+      <c r="B465" s="4">
+        <v>63.8</v>
+      </c>
+      <c r="C465" s="4">
+        <v>54.4</v>
+      </c>
+      <c r="D465" s="4">
+        <v>118.2</v>
+      </c>
       <c r="E465" s="1" t="s">
         <v>11</v>
       </c>
@@ -16578,9 +16638,15 @@
       <c r="A466" t="s">
         <v>20</v>
       </c>
-      <c r="B466" s="4"/>
-      <c r="C466" s="4"/>
-      <c r="D466" s="4"/>
+      <c r="B466" s="4">
+        <v>51</v>
+      </c>
+      <c r="C466" s="4">
+        <v>46.8</v>
+      </c>
+      <c r="D466" s="4">
+        <v>97.8</v>
+      </c>
       <c r="E466" s="1" t="s">
         <v>12</v>
       </c>
